--- a/不同模型对比记录.xlsx
+++ b/不同模型对比记录.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rainbow\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\program_dev\PycharmProjects\rainbow_GPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49656CC-36FE-4056-ADF5-E5472632557E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D592C789-B243-42C6-9A0B-3912FEB272BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>vocab_size</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,6 +88,22 @@
   </si>
   <si>
     <t>num_params</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>train_loss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>val_loss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耗时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13h</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -414,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:P3"/>
+  <dimension ref="A2:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -432,10 +448,12 @@
     <col min="12" max="12" width="14.25" customWidth="1"/>
     <col min="13" max="13" width="12" customWidth="1"/>
     <col min="15" max="15" width="19.625" customWidth="1"/>
-    <col min="16" max="16" width="11" customWidth="1"/>
+    <col min="16" max="16" width="9.875" customWidth="1"/>
+    <col min="17" max="17" width="11.125" customWidth="1"/>
+    <col min="18" max="18" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -484,8 +502,17 @@
       <c r="P2" t="s">
         <v>14</v>
       </c>
+      <c r="Q2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>10873409</v>
       </c>
@@ -524,6 +551,15 @@
       </c>
       <c r="O3">
         <v>0.9</v>
+      </c>
+      <c r="Q3">
+        <v>1.07511186599731</v>
+      </c>
+      <c r="R3">
+        <v>1.4739346504211399</v>
+      </c>
+      <c r="S3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/不同模型对比记录.xlsx
+++ b/不同模型对比记录.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\program_dev\PycharmProjects\rainbow_GPT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\PycharmProjects\rainbow_GPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D592C789-B243-42C6-9A0B-3912FEB272BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0890E8C0-F5DD-4E02-AAB0-82556DEAD057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>vocab_size</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,6 +104,10 @@
   </si>
   <si>
     <t>13h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6h</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,30 +434,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:S3"/>
+  <dimension ref="A2:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.625" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="12.625" customWidth="1"/>
-    <col min="8" max="8" width="11.75" customWidth="1"/>
-    <col min="9" max="9" width="12.375" customWidth="1"/>
-    <col min="10" max="10" width="13.125" customWidth="1"/>
-    <col min="12" max="12" width="14.25" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.77734375" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" customWidth="1"/>
+    <col min="12" max="12" width="14.21875" customWidth="1"/>
     <col min="13" max="13" width="12" customWidth="1"/>
-    <col min="15" max="15" width="19.625" customWidth="1"/>
-    <col min="16" max="16" width="9.875" customWidth="1"/>
-    <col min="17" max="17" width="11.125" customWidth="1"/>
-    <col min="18" max="18" width="11.5" customWidth="1"/>
+    <col min="15" max="15" width="19.6640625" customWidth="1"/>
+    <col min="16" max="16" width="9.88671875" customWidth="1"/>
+    <col min="17" max="17" width="16" customWidth="1"/>
+    <col min="18" max="18" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -512,7 +516,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>10873409</v>
       </c>
@@ -560,6 +564,56 @@
       </c>
       <c r="S3" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>42783809</v>
+      </c>
+      <c r="C4">
+        <v>65</v>
+      </c>
+      <c r="D4">
+        <v>256</v>
+      </c>
+      <c r="E4">
+        <v>768</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <v>0.25</v>
+      </c>
+      <c r="I4">
+        <v>0.25</v>
+      </c>
+      <c r="J4">
+        <v>0.25</v>
+      </c>
+      <c r="L4" s="1">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="M4">
+        <v>64</v>
+      </c>
+      <c r="N4">
+        <v>5000</v>
+      </c>
+      <c r="O4">
+        <v>0.9</v>
+      </c>
+      <c r="Q4">
+        <v>0.55706810951232899</v>
+      </c>
+      <c r="R4">
+        <v>1.88604235649108</v>
+      </c>
+      <c r="S4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/不同模型对比记录.xlsx
+++ b/不同模型对比记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\PycharmProjects\rainbow_GPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0890E8C0-F5DD-4E02-AAB0-82556DEAD057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4C426D-FB0E-4F8E-BFC8-19982621FD8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>vocab_size</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,6 +108,10 @@
   </si>
   <si>
     <t>6h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80G显存占用率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -151,9 +155,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -434,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:S4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -449,15 +455,21 @@
     <col min="8" max="8" width="11.77734375" customWidth="1"/>
     <col min="9" max="9" width="12.33203125" customWidth="1"/>
     <col min="10" max="10" width="13.109375" customWidth="1"/>
-    <col min="12" max="12" width="14.21875" customWidth="1"/>
-    <col min="13" max="13" width="12" customWidth="1"/>
-    <col min="15" max="15" width="19.6640625" customWidth="1"/>
-    <col min="16" max="16" width="9.88671875" customWidth="1"/>
-    <col min="17" max="17" width="16" customWidth="1"/>
-    <col min="18" max="18" width="14.5546875" customWidth="1"/>
+    <col min="11" max="11" width="17" customWidth="1"/>
+    <col min="13" max="13" width="14.21875" customWidth="1"/>
+    <col min="14" max="14" width="12" customWidth="1"/>
+    <col min="16" max="16" width="19.6640625" customWidth="1"/>
+    <col min="17" max="17" width="9.88671875" customWidth="1"/>
+    <col min="18" max="18" width="16" customWidth="1"/>
+    <col min="19" max="19" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -488,35 +500,35 @@
       <c r="J2" t="s">
         <v>7</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>13</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>8</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>9</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>10</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>11</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>16</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>17</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>10873409</v>
       </c>
@@ -544,29 +556,29 @@
       <c r="J3">
         <v>0.25</v>
       </c>
-      <c r="L3" s="1">
+      <c r="M3" s="1">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>64</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>5000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>0.9</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>1.07511186599731</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>1.4739346504211399</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>42783809</v>
       </c>
@@ -594,26 +606,122 @@
       <c r="J4">
         <v>0.25</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>64</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>5000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>0.9</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>0.55706810951232899</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>1.88604235649108</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>170437697</v>
+      </c>
+      <c r="C5">
+        <v>65</v>
+      </c>
+      <c r="D5">
+        <v>512</v>
+      </c>
+      <c r="E5">
+        <v>768</v>
+      </c>
+      <c r="F5">
+        <v>24</v>
+      </c>
+      <c r="G5">
+        <v>12</v>
+      </c>
+      <c r="H5">
+        <v>0.5</v>
+      </c>
+      <c r="I5">
+        <v>0.5</v>
+      </c>
+      <c r="J5">
+        <v>0.5</v>
+      </c>
+      <c r="M5" s="1">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>85466177</v>
+      </c>
+      <c r="C6">
+        <v>65</v>
+      </c>
+      <c r="D6">
+        <v>512</v>
+      </c>
+      <c r="E6">
+        <v>768</v>
+      </c>
+      <c r="F6">
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <v>24</v>
+      </c>
+      <c r="H6">
+        <v>0.5</v>
+      </c>
+      <c r="I6">
+        <v>0.5</v>
+      </c>
+      <c r="J6">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.76300000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>113790017</v>
+      </c>
+      <c r="C7">
+        <v>65</v>
+      </c>
+      <c r="D7">
+        <v>512</v>
+      </c>
+      <c r="E7">
+        <v>768</v>
+      </c>
+      <c r="F7">
+        <v>16</v>
+      </c>
+      <c r="G7">
+        <v>24</v>
+      </c>
+      <c r="H7">
+        <v>0.5</v>
+      </c>
+      <c r="I7">
+        <v>0.5</v>
+      </c>
+      <c r="J7">
+        <v>0.5</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.98</v>
       </c>
     </row>
   </sheetData>
